--- a/data/trans_bre/P23_10_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P23_10_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,37</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,79</t>
+          <t>-2,54</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>-0,26</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>53,97%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-65,62%</t>
+          <t>-4,45</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>10,46%</t>
+          <t>45,99%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-4,86%</t>
+          <t>-61,66%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>8,36%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>14,42%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-4,82%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-67,56%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 7,81</t>
+          <t>-3,56; 7,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,09; 0,37</t>
+          <t>-7,04; 0,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 5,43</t>
+          <t>-5,31; 5,41</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,57; 5,84</t>
+          <t>-4,44; 6,91</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-54,78; 407,21</t>
+          <t>-5,97; 5,8</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 52,65</t>
+          <t>-11,77; 0,57</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-65,07; 268,75</t>
+          <t>-50,95; 437,15</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-71,72; 254,26</t>
+          <t>-100,0; 122,58</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-65,03; 336,16</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-72,53; 263,2</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 55,21</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,93</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-2,17</t>
+          <t>-2,65</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-1,21</t>
+          <t>-1,23</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>1,17</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>-3,47</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>71,44%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-39,86%</t>
+          <t>-6,5</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-26,84%</t>
+          <t>54,74%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-57,55%</t>
+          <t>-44,57%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-26,87%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>45,93%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-57,54%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-51,29%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 5,94</t>
+          <t>-2,66; 5,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,04; 1,81</t>
+          <t>-12,71; 1,8</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,49; 3,0</t>
+          <t>-5,25; 2,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,79; 0,81</t>
+          <t>-2,07; 5,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-58,74; 590,23</t>
+          <t>-8,65; 1,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-90,68; 76,16</t>
+          <t>-15,62; 0,72</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-84,01; 117,81</t>
+          <t>-60,0; 583,76</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-88,96; 45,51</t>
+          <t>-99,26; 81,49</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-82,91; 130,0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-67,37; 532,75</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-89,03; 71,5</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-81,59; 18,62</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-9,81</t>
+          <t>-7,45</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,36</t>
+          <t>-3,34</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-4,65</t>
+          <t>-4,75</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>3,3</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-70,35%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-49,39%</t>
+          <t>-3,05</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-63,06%</t>
+          <t>-64,05%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>57,19%</t>
+          <t>-48,08%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-64,08%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0,3%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>57,1%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-23,72%</t>
         </is>
       </c>
     </row>
@@ -868,42 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-22,71; -3,74</t>
+          <t>-14,72; -1,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,64; 0,29</t>
+          <t>-10,88; 0,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,51; -1,44</t>
+          <t>-8,77; -1,64</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 8,96</t>
+          <t>-4,52; 3,67</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-89,07; -39,52</t>
+          <t>-1,72; 8,28</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-83,13; 12,25</t>
+          <t>-9,42; 3,48</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-84,19; -22,46</t>
+          <t>-84,47; -15,76</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-23,69; 253,18</t>
+          <t>-81,99; 30,93</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-84,53; -28,35</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-56,54; 113,11</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-25,81; 229,14</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-57,56; 40,54</t>
         </is>
       </c>
     </row>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,29</t>
+          <t>3,46</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,65</t>
+          <t>-0,83</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>-0,4</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>0,86</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>46,14%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-8,33%</t>
+          <t>-3,83</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,61%</t>
+          <t>47,76%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>-10,41%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>3,42%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-4,65%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
           <t>7,51%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-24,52%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 7,97</t>
+          <t>-1,1; 8,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 3,47</t>
+          <t>-4,86; 3,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 4,26</t>
+          <t>-3,72; 4,12</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,77; 7,3</t>
+          <t>-11,87; 4,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-16,09; 156,91</t>
+          <t>-6,12; 6,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-46,88; 63,86</t>
+          <t>-10,36; 2,85</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-38,79; 76,04</t>
+          <t>-16,19; 162,04</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-37,34; 101,17</t>
+          <t>-46,44; 62,48</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-37,54; 69,89</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-69,88; 85,58</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-41,33; 77,93</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-53,3; 25,12</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1212,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,85</t>
+          <t>3,7</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>2,13</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>-3,31</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>13,56%</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>86,93%</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>7,21%</t>
+          <t>10,15%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-25,1%</t>
+          <t>82,28%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>5,28%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>27,6%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-25,08%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>2,8%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1280,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 7,61</t>
+          <t>-6,05; 6,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 8,27</t>
+          <t>-0,21; 8,26</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 4,27</t>
+          <t>-3,7; 4,52</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,07; 3,18</t>
+          <t>-3,44; 9,3</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-53,08; 142,61</t>
+          <t>-9,9; 2,9</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,46; 290,9</t>
+          <t>-7,8; 7,43</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-48,98; 106,87</t>
+          <t>-54,44; 131,23</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-58,52; 33,41</t>
+          <t>-5,74; 282,73</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-46,38; 102,57</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-35,5; 197,98</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-59,11; 33,27</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-37,57; 61,58</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1352,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3,64</t>
+          <t>4,52</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-5,0</t>
+          <t>-5,27</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-5,66</t>
+          <t>-6,2</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>2,36</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>2,57</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>68,4%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-51,45%</t>
+          <t>5,88</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-68,32%</t>
+          <t>88,01%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
+          <t>-53,01%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-69,49%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>26,33%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
           <t>21,58%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>59,05%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1420,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 10,67</t>
+          <t>-1,33; 11,73</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-11,23; 0,16</t>
+          <t>-10,81; -0,24</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-10,5; -1,49</t>
+          <t>-12,26; -2,14</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 13,57</t>
+          <t>-4,89; 9,74</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-28,45; 384,7</t>
+          <t>-5,9; 12,61</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-81,08; 10,57</t>
+          <t>-2,67; 13,99</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-90,35; -19,07</t>
+          <t>-26,48; 373,85</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-40,46; 158,69</t>
+          <t>-78,27; 11,0</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-90,26; -16,77</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-41,53; 177,39</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-38,77; 156,07</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-21,3; 239,96</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1492,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,73</t>
+          <t>-1,87</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,84</t>
+          <t>-1,97</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>1,1</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
           <t>0,49</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>1,84%</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-26,72%</t>
+          <t>-1,65</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-28,13%</t>
+          <t>10,45%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>5,56%</t>
+          <t>-28,21%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-29,37%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>17,83%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>5,57%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-13,2%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1560,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 2,59</t>
+          <t>-1,67; 2,93</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 0,17</t>
+          <t>-4,07; -0,09</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,52; -0,28</t>
+          <t>-3,85; -0,34</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 3,33</t>
+          <t>-1,23; 3,47</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-30,85; 45,16</t>
+          <t>-2,24; 3,23</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-48,65; 4,12</t>
+          <t>-4,69; 1,39</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-47,11; -4,52</t>
+          <t>-20,98; 53,02</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-20,84; 44,8</t>
+          <t>-49,49; 0,29</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-49,37; -5,6</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-17,15; 67,65</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-23,0; 43,15</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-32,66; 13,04</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1312,13 +1631,13 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
